--- a/power_system_test_cases/generator_dispatch_solutions.xlsx
+++ b/power_system_test_cases/generator_dispatch_solutions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailwsu-my.sharepoint.com/personal/abodh_poudyal_wsu_edu/Documents/Spring 2023/EE536/project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailwsu-my.sharepoint.com/personal/abodh_poudyal_wsu_edu/Documents/Spring 2023/EE536/project/proactive_resilience_planning/power_system_test_cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{DB6FE272-60EE-4FA2-AF49-780928BF6D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B143ACAB-0C05-4B33-A6DD-A889016CE4A7}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="8_{DB6FE272-60EE-4FA2-AF49-780928BF6D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1079A2DF-FD95-43F6-AFEF-0FDED6B74495}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8847DBCC-3B00-4752-A124-CE6993807140}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{8847DBCC-3B00-4752-A124-CE6993807140}"/>
   </bookViews>
   <sheets>
     <sheet name="39" sheetId="1" r:id="rId1"/>
@@ -108,11 +108,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,7 +430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247B502D-524E-4D8E-B703-E40ECAE197D3}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -567,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A590E42-5A1B-476E-B85B-9CA7046B71F9}">
   <dimension ref="A1:L159"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -615,1267 +616,1741 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>101</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>8</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>101</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>8</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>101</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>76</v>
       </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>101</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>76</v>
       </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>102</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>8</v>
       </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>102</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>8</v>
       </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>102</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>76</v>
       </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>102</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>76</v>
       </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>107</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>355</v>
       </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>113</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>55</v>
       </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>113</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>55</v>
       </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>113</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>55</v>
       </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>113</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>55</v>
       </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>115</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>5</v>
       </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>115</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="C16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>115</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>155</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="C17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>116</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>155</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="C18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>118</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>355</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="C19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>123</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>155</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="C20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>123</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>350</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="C21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>123</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="C22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>123</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="C23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>123</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="C24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>201</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="C25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>201</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="C26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>201</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="C27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>202</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="C28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>202</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="C29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>202</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="C30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
         <v>202</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="C31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
         <v>207</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="C32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>207</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="C33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
         <v>213</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>336.666670000007</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="C34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
         <v>213</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="C35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
         <v>213</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="C36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
         <v>215</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="C37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
         <v>215</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="C38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
         <v>216</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>155</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="C39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
         <v>218</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>355</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="C40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
         <v>221</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>293.33332999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="C41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
         <v>223</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>155</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43">
+      <c r="C42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
         <v>223</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
         <v>155</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="C43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
         <v>223</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <v>350</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="C44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
         <v>223</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46">
+      <c r="C45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
         <v>223</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="C46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
         <v>223</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="C47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
         <v>301</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="C48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
         <v>301</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="C49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
         <v>301</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51">
+      <c r="C50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
         <v>301</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52">
+      <c r="C51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
         <v>302</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53">
+      <c r="C52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
         <v>302</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54">
+      <c r="C53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
         <v>302</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55">
+      <c r="C54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
         <v>302</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56">
+      <c r="C55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
         <v>307</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57">
+      <c r="C56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
         <v>307</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58">
+      <c r="C57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
         <v>313</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="2">
         <v>355</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59">
+      <c r="C58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
         <v>315</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60">
+      <c r="C59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
         <v>315</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61">
+      <c r="C60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
         <v>315</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62">
+      <c r="C61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
         <v>315</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63">
+      <c r="C62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
         <v>315</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64">
+      <c r="C63">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
         <v>315</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65">
+      <c r="C64">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
         <v>315</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66">
+      <c r="C65">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
         <v>315</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67">
+      <c r="C66">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
         <v>316</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="2">
         <v>155</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68">
+      <c r="C67">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
         <v>318</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="2">
         <v>355</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69">
+      <c r="C68">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
         <v>321</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="2">
         <v>355</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70">
+      <c r="C69">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
         <v>322</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71">
+      <c r="C70">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
         <v>322</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72">
+      <c r="C71">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
         <v>323</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="2">
         <v>355</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73">
+      <c r="C72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
         <v>323</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="2">
         <v>355</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74">
+      <c r="C73">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
         <v>114</v>
       </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75">
+      <c r="B74" s="2">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
         <v>121</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="2">
         <v>400</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76">
+      <c r="C75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
         <v>122</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77">
+      <c r="C76">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
         <v>122</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78">
+      <c r="C77">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
         <v>122</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79">
+      <c r="C78">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
         <v>122</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80">
+      <c r="C79">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
         <v>122</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81">
+      <c r="C80">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
         <v>122</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82">
+      <c r="C81">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
         <v>201</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83">
+      <c r="C82">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
         <v>214</v>
       </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84">
+      <c r="B83" s="2">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
         <v>215</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85">
+      <c r="C84">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
         <v>215</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86">
+      <c r="C85">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
         <v>215</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87">
+      <c r="C86">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
         <v>222</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88">
+      <c r="C87">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
         <v>222</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89">
+      <c r="C88">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
         <v>222</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90">
+      <c r="C89">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
         <v>222</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91">
+      <c r="C90">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
         <v>222</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92">
+      <c r="C91">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
         <v>222</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93">
+      <c r="C92">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
         <v>314</v>
       </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94">
+      <c r="B93" s="2">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
         <v>322</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95">
+      <c r="C94">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
         <v>322</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96">
+      <c r="C95">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
         <v>322</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97">
+      <c r="C96">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
         <v>322</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98">
+      <c r="C97">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
         <v>320</v>
       </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99">
+      <c r="B98" s="2">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
         <v>314</v>
       </c>
-      <c r="B99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100">
+      <c r="B99" s="2">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
         <v>314</v>
       </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101">
+      <c r="B100" s="2">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
         <v>313</v>
       </c>
-      <c r="B101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102">
+      <c r="B101" s="2">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
         <v>314</v>
       </c>
-      <c r="B102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103">
+      <c r="B102" s="2">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
         <v>314</v>
       </c>
-      <c r="B103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104">
+      <c r="B103" s="2">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
         <v>313</v>
       </c>
-      <c r="B104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105">
+      <c r="B104" s="2">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
         <v>310</v>
       </c>
-      <c r="B105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106">
+      <c r="B105" s="2">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
         <v>324</v>
       </c>
-      <c r="B106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107">
+      <c r="B106" s="2">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
         <v>312</v>
       </c>
-      <c r="B107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108">
+      <c r="B107" s="2">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
         <v>310</v>
       </c>
-      <c r="B108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109">
+      <c r="B108" s="2">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
         <v>324</v>
       </c>
-      <c r="B109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110">
+      <c r="B109" s="2">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
         <v>324</v>
       </c>
-      <c r="B110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111">
+      <c r="B110" s="2">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
         <v>113</v>
       </c>
-      <c r="B111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112">
+      <c r="B111" s="2">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
         <v>319</v>
       </c>
-      <c r="B112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113">
+      <c r="B112" s="2">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
         <v>215</v>
       </c>
-      <c r="B113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114">
+      <c r="B113" s="2">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
         <v>102</v>
       </c>
-      <c r="B114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115">
+      <c r="B114" s="2">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
         <v>101</v>
       </c>
-      <c r="B115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116">
+      <c r="B115" s="2">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
         <v>102</v>
       </c>
-      <c r="B116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117">
+      <c r="B116" s="2">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
         <v>104</v>
       </c>
-      <c r="B117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118">
+      <c r="B117" s="2">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
         <v>212</v>
       </c>
-      <c r="B118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119">
+      <c r="B118" s="2">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
         <v>101</v>
       </c>
-      <c r="B119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120">
+      <c r="B119" s="2">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
         <v>101</v>
       </c>
-      <c r="B120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121">
+      <c r="B120" s="2">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
         <v>101</v>
       </c>
-      <c r="B121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122">
+      <c r="B121" s="2">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
         <v>103</v>
       </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123">
+      <c r="B122" s="2">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
         <v>119</v>
       </c>
-      <c r="B123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124">
+      <c r="B123" s="2">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
         <v>308</v>
       </c>
-      <c r="B124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125">
+      <c r="B124" s="2">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
         <v>313</v>
       </c>
-      <c r="B125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126">
+      <c r="B125" s="2">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
         <v>313</v>
       </c>
-      <c r="B126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127">
+      <c r="B126" s="2">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
         <v>313</v>
       </c>
-      <c r="B127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128">
+      <c r="B127" s="2">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
         <v>313</v>
       </c>
-      <c r="B128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129">
+      <c r="B128" s="2">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
         <v>313</v>
       </c>
-      <c r="B129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130">
+      <c r="B129" s="2">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
         <v>313</v>
       </c>
-      <c r="B130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131">
+      <c r="B130" s="2">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
         <v>313</v>
       </c>
-      <c r="B131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132">
+      <c r="B131" s="2">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
         <v>313</v>
       </c>
-      <c r="B132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133">
+      <c r="B132" s="2">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
         <v>313</v>
       </c>
-      <c r="B133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134">
+      <c r="B133" s="2">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
         <v>313</v>
       </c>
-      <c r="B134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135">
+      <c r="B134" s="2">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
         <v>313</v>
       </c>
-      <c r="B135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136">
+      <c r="B135" s="2">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
         <v>313</v>
       </c>
-      <c r="B136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137">
+      <c r="B136" s="2">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
         <v>320</v>
       </c>
-      <c r="B137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138">
+      <c r="B137" s="2">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
         <v>320</v>
       </c>
-      <c r="B138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139">
+      <c r="B138" s="2">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
         <v>320</v>
       </c>
-      <c r="B139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140">
+      <c r="B139" s="2">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
         <v>313</v>
       </c>
-      <c r="B140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141">
+      <c r="B140" s="2">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
         <v>320</v>
       </c>
-      <c r="B141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142">
+      <c r="B141" s="2">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
         <v>320</v>
       </c>
-      <c r="B142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143">
+      <c r="B142" s="2">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
         <v>118</v>
       </c>
-      <c r="B143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144">
+      <c r="B143" s="2">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
         <v>118</v>
       </c>
-      <c r="B144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145">
+      <c r="B144" s="2">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
         <v>118</v>
       </c>
-      <c r="B145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146">
+      <c r="B145" s="2">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
         <v>118</v>
       </c>
-      <c r="B146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147">
+      <c r="B146" s="2">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
         <v>118</v>
       </c>
-      <c r="B147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148">
+      <c r="B147" s="2">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
         <v>118</v>
       </c>
-      <c r="B148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149">
+      <c r="B148" s="2">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="2">
         <v>320</v>
       </c>
-      <c r="B149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150">
+      <c r="B149" s="2">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="2">
         <v>118</v>
       </c>
-      <c r="B150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151">
+      <c r="B150" s="2">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
         <v>118</v>
       </c>
-      <c r="B151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152">
+      <c r="B151" s="2">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="2">
         <v>118</v>
       </c>
-      <c r="B152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153">
+      <c r="B152" s="2">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
         <v>118</v>
       </c>
-      <c r="B153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154">
+      <c r="B153" s="2">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="2">
         <v>213</v>
       </c>
-      <c r="B154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155">
+      <c r="B154" s="2">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="2">
         <v>309</v>
       </c>
-      <c r="B155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156">
+      <c r="B155" s="2">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="2">
         <v>317</v>
       </c>
-      <c r="B156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157">
+      <c r="B156" s="2">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="2">
         <v>303</v>
       </c>
-      <c r="B157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158">
+      <c r="B157" s="2">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="2">
         <v>122</v>
       </c>
-      <c r="B158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159">
+      <c r="B158" s="2">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="2">
         <v>313</v>
       </c>
-      <c r="B159">
-        <v>0</v>
+      <c r="B159" s="2">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
